--- a/doc/demo/SourceTemplate.xlsx
+++ b/doc/demo/SourceTemplate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\ProjectData\ExcelTransformer\test\xl_transform\main_test\test_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\ProjectData\ExcelTransformer\doc\demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
   <si>
     <t>Table1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,7 +34,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${TBL_2:_}</t>
+    <t>${TBL_2:A}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${TBL_2:B}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${TBL_2:C}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${TBL_2:D}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -383,17 +395,17 @@
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.15">
